--- a/tut05/output/0501ME02.xlsx
+++ b/tut05/output/0501ME02.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.163265306122449</v>
+        <v>6.16</v>
       </c>
       <c r="C6" t="n">
-        <v>6.068181818181818</v>
+        <v>6.07</v>
       </c>
       <c r="D6" t="n">
-        <v>6.021276595744681</v>
+        <v>6.02</v>
       </c>
       <c r="E6" t="n">
-        <v>6.530612244897959</v>
+        <v>6.53</v>
       </c>
       <c r="F6" t="n">
-        <v>5.260869565217392</v>
+        <v>5.26</v>
       </c>
       <c r="G6" t="n">
-        <v>5.782608695652174</v>
+        <v>5.78</v>
       </c>
       <c r="H6" t="n">
         <v>7.6</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.163265306122449</v>
+        <v>6.16</v>
       </c>
       <c r="C8" t="n">
-        <v>6.118279569892473</v>
+        <v>6.12</v>
       </c>
       <c r="D8" t="n">
-        <v>6.085714285714285</v>
+        <v>6.09</v>
       </c>
       <c r="E8" t="n">
-        <v>6.201058201058201</v>
+        <v>6.2</v>
       </c>
       <c r="F8" t="n">
-        <v>6.017021276595744</v>
+        <v>6.02</v>
       </c>
       <c r="G8" t="n">
-        <v>5.978647686832741</v>
+        <v>5.98</v>
       </c>
       <c r="H8" t="n">
-        <v>6.180685358255452</v>
+        <v>6.18</v>
       </c>
       <c r="I8" t="n">
-        <v>6.343490304709142</v>
+        <v>6.34</v>
       </c>
     </row>
   </sheetData>
